--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N2">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O2">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P2">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q2">
-        <v>2.183891721568889</v>
+        <v>1.616160640530778</v>
       </c>
       <c r="R2">
-        <v>19.65502549412</v>
+        <v>14.545445764777</v>
       </c>
       <c r="S2">
-        <v>0.1065778926425529</v>
+        <v>0.06130738971664917</v>
       </c>
       <c r="T2">
-        <v>0.1210331286627701</v>
+        <v>0.07154890804003859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.113169</v>
       </c>
       <c r="O3">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P3">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q3">
-        <v>3.183145787515222</v>
+        <v>3.022703732386555</v>
       </c>
       <c r="R3">
-        <v>28.648312087637</v>
+        <v>27.204333591479</v>
       </c>
       <c r="S3">
-        <v>0.1553433105940231</v>
+        <v>0.1146631535702614</v>
       </c>
       <c r="T3">
-        <v>0.1764126352271314</v>
+        <v>0.1338178556989109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N4">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O4">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P4">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q4">
-        <v>0.7785470559703334</v>
+        <v>0.8253552930234443</v>
       </c>
       <c r="R4">
-        <v>7.006923503733</v>
+        <v>7.428197637210999</v>
       </c>
       <c r="S4">
-        <v>0.03799451398111103</v>
+        <v>0.03130900316163458</v>
       </c>
       <c r="T4">
-        <v>0.04314773716326201</v>
+        <v>0.03653923284599934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N5">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O5">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P5">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q5">
-        <v>1.499777671574</v>
+        <v>1.755478263299667</v>
       </c>
       <c r="R5">
-        <v>8.998666029443999</v>
+        <v>10.532869579798</v>
       </c>
       <c r="S5">
-        <v>0.07319188130530654</v>
+        <v>0.0665922602791969</v>
       </c>
       <c r="T5">
-        <v>0.05541263244155141</v>
+        <v>0.05181108431806392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H6">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I6">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J6">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N6">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O6">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P6">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q6">
-        <v>0.8034996943171111</v>
+        <v>1.604191077244444</v>
       </c>
       <c r="R6">
-        <v>7.231497248854001</v>
+        <v>14.4377196952</v>
       </c>
       <c r="S6">
-        <v>0.03921224816848221</v>
+        <v>0.060853336658599</v>
       </c>
       <c r="T6">
-        <v>0.04453063351186465</v>
+        <v>0.07101900453826043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N7">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O7">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P7">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q7">
-        <v>1.579185860248889</v>
+        <v>1.230687013979111</v>
       </c>
       <c r="R7">
-        <v>14.21267274224</v>
+        <v>11.076183125812</v>
       </c>
       <c r="S7">
-        <v>0.07706714550634124</v>
+        <v>0.04668484462067913</v>
       </c>
       <c r="T7">
-        <v>0.0875198177264128</v>
+        <v>0.05448363843357947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
         <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>10.113169</v>
       </c>
       <c r="O8">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P8">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q8">
-        <v>2.301752769658223</v>
+        <v>2.301752769658222</v>
       </c>
       <c r="R8">
         <v>20.715774926924</v>
       </c>
       <c r="S8">
-        <v>0.1123297264014994</v>
+        <v>0.08731462117185861</v>
       </c>
       <c r="T8">
-        <v>0.1275650877598435</v>
+        <v>0.1019006979362482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H9">
         <v>2.048396</v>
       </c>
       <c r="I9">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J9">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N9">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O9">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P9">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q9">
-        <v>0.5629722802573334</v>
+        <v>0.6284981923017777</v>
       </c>
       <c r="R9">
-        <v>5.066750522316</v>
+        <v>5.656483730715999</v>
       </c>
       <c r="S9">
-        <v>0.02747407238802824</v>
+        <v>0.02384143175210609</v>
       </c>
       <c r="T9">
-        <v>0.03120040053130882</v>
+        <v>0.02782418915335168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
         <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J10">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N10">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O10">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P10">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q10">
-        <v>1.084498681448</v>
+        <v>1.336775718814667</v>
       </c>
       <c r="R10">
-        <v>6.506992088688001</v>
+        <v>8.020654312888</v>
       </c>
       <c r="S10">
-        <v>0.052925510409152</v>
+        <v>0.05070921039768007</v>
       </c>
       <c r="T10">
-        <v>0.04006922356388746</v>
+        <v>0.03945352154441589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
         <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J11">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N11">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O11">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P11">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q11">
-        <v>0.5810156902231112</v>
+        <v>1.221572334577778</v>
       </c>
       <c r="R11">
-        <v>5.229141212008001</v>
+        <v>10.9941510112</v>
       </c>
       <c r="S11">
-        <v>0.02835462364945101</v>
+        <v>0.04633908864309491</v>
       </c>
       <c r="T11">
-        <v>0.03220038159187817</v>
+        <v>0.05408012324954042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N12">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O12">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P12">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q12">
-        <v>0.1692956231866667</v>
+        <v>0.3989989537143334</v>
       </c>
       <c r="R12">
-        <v>1.52366060868</v>
+        <v>3.590990583429</v>
       </c>
       <c r="S12">
-        <v>0.008261934680479756</v>
+        <v>0.01513561445467837</v>
       </c>
       <c r="T12">
-        <v>0.009382506806919691</v>
+        <v>0.01766404819634932</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.113169</v>
       </c>
       <c r="O13">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P13">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q13">
-        <v>0.2467579525436667</v>
+        <v>0.7462473694536667</v>
       </c>
       <c r="R13">
-        <v>2.220821572893</v>
+        <v>6.716226325082999</v>
       </c>
       <c r="S13">
-        <v>0.01204223740360265</v>
+        <v>0.02830812553948529</v>
       </c>
       <c r="T13">
-        <v>0.01367553469973498</v>
+        <v>0.03303705279855457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H14">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I14">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J14">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N14">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O14">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P14">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q14">
-        <v>0.060353087893</v>
+        <v>0.2037643351163333</v>
       </c>
       <c r="R14">
-        <v>0.5431777910369999</v>
+        <v>1.833879016047</v>
       </c>
       <c r="S14">
-        <v>0.002945340585606414</v>
+        <v>0.007729590233819985</v>
       </c>
       <c r="T14">
-        <v>0.003344819241725633</v>
+        <v>0.009020833269575281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H15">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I15">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J15">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N15">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O15">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P15">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q15">
-        <v>0.116262996486</v>
+        <v>0.433393793141</v>
       </c>
       <c r="R15">
-        <v>0.6975779789159999</v>
+        <v>2.600362758846</v>
       </c>
       <c r="S15">
-        <v>0.005673845930825167</v>
+        <v>0.01644034727151006</v>
       </c>
       <c r="T15">
-        <v>0.004295595815925726</v>
+        <v>0.01279115944001912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073199</v>
+        <v>0.221369</v>
       </c>
       <c r="H16">
-        <v>0.219597</v>
+        <v>0.664107</v>
       </c>
       <c r="I16">
-        <v>0.03196309812819735</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J16">
-        <v>0.03415047814432848</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N16">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O16">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P16">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q16">
-        <v>0.06228742026733333</v>
+        <v>0.3960438989333334</v>
       </c>
       <c r="R16">
-        <v>0.560586782406</v>
+        <v>3.5643950904</v>
       </c>
       <c r="S16">
-        <v>0.003039739527683365</v>
+        <v>0.01502351749441995</v>
       </c>
       <c r="T16">
-        <v>0.003452021580022452</v>
+        <v>0.01753322522153067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H17">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I17">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J17">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N17">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O17">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P17">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q17">
-        <v>1.017760445773333</v>
+        <v>1.1918410511285</v>
       </c>
       <c r="R17">
-        <v>6.106562674639999</v>
+        <v>7.151046306771001</v>
       </c>
       <c r="S17">
-        <v>0.04966856298513857</v>
+        <v>0.0452112630201405</v>
       </c>
       <c r="T17">
-        <v>0.03760343053780726</v>
+        <v>0.03517592811299174</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H18">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I18">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J18">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.113169</v>
       </c>
       <c r="O18">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P18">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q18">
-        <v>1.483443452652333</v>
+        <v>2.2290992017195</v>
       </c>
       <c r="R18">
-        <v>8.900660715913999</v>
+        <v>13.374595210317</v>
       </c>
       <c r="S18">
-        <v>0.07239474167908792</v>
+        <v>0.08455858288443847</v>
       </c>
       <c r="T18">
-        <v>0.05480912827791345</v>
+        <v>0.06578950540608493</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H19">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I19">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J19">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N19">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O19">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P19">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q19">
-        <v>0.362826778871</v>
+        <v>0.6086599904255</v>
       </c>
       <c r="R19">
-        <v>2.176960673226</v>
+        <v>3.651959942553</v>
       </c>
       <c r="S19">
-        <v>0.01770660747712208</v>
+        <v>0.02308888999158711</v>
       </c>
       <c r="T19">
-        <v>0.01340544489933005</v>
+        <v>0.01796395588840416</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H20">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I20">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J20">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N20">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O20">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P20">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q20">
-        <v>0.698942340642</v>
+        <v>1.2945811239885</v>
       </c>
       <c r="R20">
-        <v>2.795769362568</v>
+        <v>5.178324495954</v>
       </c>
       <c r="S20">
-        <v>0.03410965892153454</v>
+        <v>0.04910860189127916</v>
       </c>
       <c r="T20">
-        <v>0.01721598952249405</v>
+        <v>0.02547212846922139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.440053</v>
+        <v>0.6612465000000001</v>
       </c>
       <c r="H21">
-        <v>0.8801059999999999</v>
+        <v>1.322493</v>
       </c>
       <c r="I21">
-        <v>0.1921536799766066</v>
+        <v>0.2468437584284291</v>
       </c>
       <c r="J21">
-        <v>0.1368690861791935</v>
+        <v>0.1793169270244717</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N21">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O21">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P21">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q21">
-        <v>0.3744554727646666</v>
+        <v>1.1830140716</v>
       </c>
       <c r="R21">
-        <v>2.246732836588</v>
+        <v>7.0980844296</v>
       </c>
       <c r="S21">
-        <v>0.01827410891372351</v>
+        <v>0.04487642064098387</v>
       </c>
       <c r="T21">
-        <v>0.01383509294164875</v>
+        <v>0.03491540914776951</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H22">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I22">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J22">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.312813333333333</v>
+        <v>1.802415666666667</v>
       </c>
       <c r="N22">
-        <v>6.93844</v>
+        <v>5.407247</v>
       </c>
       <c r="O22">
-        <v>0.2584835377141118</v>
+        <v>0.1831574081839677</v>
       </c>
       <c r="P22">
-        <v>0.274740130058117</v>
+        <v>0.1961662442954491</v>
       </c>
       <c r="Q22">
-        <v>0.3464625210844444</v>
+        <v>0.3906339426053334</v>
       </c>
       <c r="R22">
-        <v>3.11816268976</v>
+        <v>3.515705483448</v>
       </c>
       <c r="S22">
-        <v>0.01690800189959938</v>
+        <v>0.01481829637182051</v>
       </c>
       <c r="T22">
-        <v>0.01920124632420724</v>
+        <v>0.01729372151248999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H23">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I23">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J23">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.113169</v>
       </c>
       <c r="O23">
-        <v>0.3767543858015183</v>
+        <v>0.3425591289923409</v>
       </c>
       <c r="P23">
-        <v>0.4004492892292385</v>
+        <v>0.3668895429883566</v>
       </c>
       <c r="Q23">
-        <v>0.504988733475111</v>
+        <v>0.7306022970106667</v>
       </c>
       <c r="R23">
-        <v>4.544898601276</v>
+        <v>6.575420673096</v>
       </c>
       <c r="S23">
-        <v>0.02464436972330517</v>
+        <v>0.02771464582629713</v>
       </c>
       <c r="T23">
-        <v>0.02798690326461519</v>
+        <v>0.03234443114855801</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H24">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I24">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J24">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.824507</v>
+        <v>0.9204736666666666</v>
       </c>
       <c r="N24">
-        <v>2.473521</v>
+        <v>2.761421</v>
       </c>
       <c r="O24">
-        <v>0.09214815703387902</v>
+        <v>0.09353645455160088</v>
       </c>
       <c r="P24">
-        <v>0.0979435552143542</v>
+        <v>0.1001799227016231</v>
       </c>
       <c r="Q24">
-        <v>0.1235122479426666</v>
+        <v>0.1994924168293333</v>
       </c>
       <c r="R24">
-        <v>1.111610231484</v>
+        <v>1.795431751464</v>
       </c>
       <c r="S24">
-        <v>0.006027622602011251</v>
+        <v>0.007567539412453133</v>
       </c>
       <c r="T24">
-        <v>0.006845153378727699</v>
+        <v>0.008831711544292615</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H25">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I25">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J25">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.588314</v>
+        <v>1.957789</v>
       </c>
       <c r="N25">
-        <v>3.176628</v>
+        <v>3.915578</v>
       </c>
       <c r="O25">
-        <v>0.1775123896960348</v>
+        <v>0.1989460953112084</v>
       </c>
       <c r="P25">
-        <v>0.1257843535241721</v>
+        <v>0.142050886616773</v>
       </c>
       <c r="Q25">
-        <v>0.237931554952</v>
+        <v>0.424307694392</v>
       </c>
       <c r="R25">
-        <v>1.427589329712</v>
+        <v>2.545846166352</v>
       </c>
       <c r="S25">
-        <v>0.01161149312921649</v>
+        <v>0.01609567547154223</v>
       </c>
       <c r="T25">
-        <v>0.008790912180313413</v>
+        <v>0.01252299284505267</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1498013333333333</v>
+        <v>0.216728</v>
       </c>
       <c r="H26">
-        <v>0.449404</v>
+        <v>0.650184</v>
       </c>
       <c r="I26">
-        <v>0.0654122968492484</v>
+        <v>0.08090470660589748</v>
       </c>
       <c r="J26">
-        <v>0.0698887574965678</v>
+        <v>0.08815849829109049</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8509326666666667</v>
+        <v>1.789066666666667</v>
       </c>
       <c r="N26">
-        <v>2.552798</v>
+        <v>5.3672</v>
       </c>
       <c r="O26">
-        <v>0.09510152975445622</v>
+        <v>0.1818009129608822</v>
       </c>
       <c r="P26">
-        <v>0.1010826719741183</v>
+        <v>0.1947134033977982</v>
       </c>
       <c r="Q26">
-        <v>0.1274708480435555</v>
+        <v>0.3877408405333333</v>
       </c>
       <c r="R26">
-        <v>1.147237632392</v>
+        <v>3.4896675648</v>
       </c>
       <c r="S26">
-        <v>0.00622080949511612</v>
+        <v>0.01470854952378448</v>
       </c>
       <c r="T26">
-        <v>0.007064542348704262</v>
+        <v>0.01716564124069721</v>
       </c>
     </row>
   </sheetData>
